--- a/DailyCheck/etc/tables.xlsx
+++ b/DailyCheck/etc/tables.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="21555" windowHeight="10755"/>
+    <workbookView xWindow="480" yWindow="75" windowWidth="21555" windowHeight="10755" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="precheck" sheetId="1" r:id="rId1"/>
     <sheet name="update" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="87">
   <si>
     <t>ifany</t>
   </si>
@@ -249,6 +251,44 @@
   </si>
   <si>
     <t>]=?,"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json.put("</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">", </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("#</t>
+  </si>
+  <si>
+    <t>).flipswitch("refresh");</t>
+  </si>
+  <si>
+    <t>").val(data.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>links : $("#links").val(),</t>
+  </si>
+  <si>
+    <t>bbs : $("#bbs").val(),</t>
+  </si>
+  <si>
+    <t>indexsize : $("#indexsize").val(),</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : $("#</t>
+  </si>
+  <si>
+    <t>").val(),</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -605,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B1:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1732,12 +1772,2247 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="56.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" t="str">
+        <f>B3&amp;C3&amp;D3&amp;E3&amp;F3</f>
+        <v>json.put("checkTime", checkTime);</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G41" si="0">B4&amp;C4&amp;D4&amp;E4&amp;F4</f>
+        <v>json.put("checker", checker);</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("ars", ars);</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("mail", mail);</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("fax", fax);</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("vrs", vrs);</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("messanger", messanger);</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("leaseloan", leaseloan);</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("visual", visual);</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("images", images);</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("font", font);</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("links", links);</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("bbs", bbs);</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("indexsize", indexsize);</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("WMtime", WMtime);</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("WMstate", WMstate);</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>77</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("WMpump", WMpump);</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("WMaircon", WMaircon);</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("WMtemperature", WMtemperature);</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("WEtime", WEtime);</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("WEstate", WEstate);</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>78</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("WEpump", WEpump);</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("WEaircon", WEaircon);</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("WEtemperature", WEtemperature);</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("EMtime", EMtime);</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>78</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("EMstate", EMstate);</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("EMpump", EMpump);</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
+        <v>77</v>
+      </c>
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("EMaircon", EMaircon);</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("EMtemperature", EMtemperature);</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("EEtime", EEtime);</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("EEstate", EEstate);</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("EEpump", EEpump);</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("EEaircon", EEaircon);</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("EEtemperature", EEtemperature);</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("ifany", ifany);</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="0"/>
+        <v>json.put("id", id);</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G39" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G40" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="G41" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:H38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="53.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" t="str">
+        <f>B3&amp;C3&amp;D3&amp;E3&amp;F3</f>
+        <v>$("#checkTime").val(data.checkTime).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H37" si="0">B4&amp;C4&amp;D4&amp;E4&amp;F4</f>
+        <v>$("#checker").val(data.checker).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#ars").val(data.ars).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#mail").val(data.mail).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#fax").val(data.fax).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#vrs").val(data.vrs).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#messanger").val(data.messanger).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#leaseloan").val(data.leaseloan).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#visual").val(data.visual).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#images").val(data.images).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#font").val(data.font).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#links").val(data.links).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#bbs").val(data.bbs).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#indexsize").val(data.indexsize).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#WMtime").val(data.WMtime).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#WMstate").val(data.WMstate).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#WMpump").val(data.WMpump).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#WMaircon").val(data.WMaircon).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#WMtemperature").val(data.WMtemperature).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#WEtime").val(data.WEtime).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#WEstate").val(data.WEstate).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#WEpump").val(data.WEpump).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#WEaircon").val(data.WEaircon).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#WEtemperature").val(data.WEtemperature).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" t="s">
+        <v>80</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#EMtime").val(data.EMtime).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>80</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#EMstate").val(data.EMstate).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" t="s">
+        <v>64</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#EMpump").val(data.EMpump).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" t="s">
+        <v>65</v>
+      </c>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#EMaircon").val(data.EMaircon).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>80</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#EMtemperature").val(data.EMtemperature).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#EEtime").val(data.EEtime).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F33" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#EEstate").val(data.EEstate).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" t="s">
+        <v>80</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#EEpump").val(data.EEpump).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#EEaircon").val(data.EEaircon).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" t="s">
+        <v>80</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#EEtemperature").val(data.EEtemperature).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="0"/>
+        <v>$("#ifany").val(data.ifany).flipswitch("refresh");</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:J43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="str">
+        <f>F8&amp;G8&amp;H8&amp;I8</f>
+        <v>checkTime : $("#checkTime").val(),</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" t="s">
+        <v>86</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" ref="J9:J43" si="0">F9&amp;G9&amp;H9&amp;I9</f>
+        <v>checker : $("#checker").val(),</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v>ars : $("#ars").val(),</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v>mail : $("#mail").val(),</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="0"/>
+        <v>fax : $("#fax").val(),</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="0"/>
+        <v>vrs : $("#vrs").val(),</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" t="s">
+        <v>85</v>
+      </c>
+      <c r="H14" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="0"/>
+        <v>messanger : $("#messanger").val(),</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" t="s">
+        <v>45</v>
+      </c>
+      <c r="I15" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="0"/>
+        <v>leaseloan : $("#leaseloan").val(),</v>
+      </c>
+    </row>
+    <row r="16" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="0"/>
+        <v>visual : $("#visual").val(),</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>86</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="0"/>
+        <v>images : $("#images").val(),</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="0"/>
+        <v>font : $("#font").val(),</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="0"/>
+        <v>links : $("#links").val(),</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" t="s">
+        <v>85</v>
+      </c>
+      <c r="H20" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="0"/>
+        <v>bbs : $("#bbs").val(),</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H21" t="s">
+        <v>51</v>
+      </c>
+      <c r="I21" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="0"/>
+        <v>indexsize : $("#indexsize").val(),</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="0"/>
+        <v>WMtime : $("#WMtime").val(),</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
+        <v>85</v>
+      </c>
+      <c r="H23" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="0"/>
+        <v>WMstate : $("#WMstate").val(),</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" t="s">
+        <v>85</v>
+      </c>
+      <c r="H24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I24" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="0"/>
+        <v>WMpump : $("#WMpump").val(),</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" t="s">
+        <v>85</v>
+      </c>
+      <c r="H25" t="s">
+        <v>55</v>
+      </c>
+      <c r="I25" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="0"/>
+        <v>WMaircon : $("#WMaircon").val(),</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>85</v>
+      </c>
+      <c r="H26" t="s">
+        <v>56</v>
+      </c>
+      <c r="I26" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="0"/>
+        <v>WMtemperature : $("#WMtemperature").val(),</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="0"/>
+        <v>WEtime : $("#WEtime").val(),</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>58</v>
+      </c>
+      <c r="G28" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" t="s">
+        <v>58</v>
+      </c>
+      <c r="I28" t="s">
+        <v>86</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="0"/>
+        <v>WEstate : $("#WEstate").val(),</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>59</v>
+      </c>
+      <c r="G29" t="s">
+        <v>85</v>
+      </c>
+      <c r="H29" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="0"/>
+        <v>WEpump : $("#WEpump").val(),</v>
+      </c>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+      <c r="G30" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" t="s">
+        <v>86</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="0"/>
+        <v>WEaircon : $("#WEaircon").val(),</v>
+      </c>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G31" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" t="s">
+        <v>86</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="0"/>
+        <v>WEtemperature : $("#WEtemperature").val(),</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I32" t="s">
+        <v>86</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="0"/>
+        <v>EMtime : $("#EMtime").val(),</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>63</v>
+      </c>
+      <c r="G33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="0"/>
+        <v>EMstate : $("#EMstate").val(),</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" t="s">
+        <v>85</v>
+      </c>
+      <c r="H34" t="s">
+        <v>64</v>
+      </c>
+      <c r="I34" t="s">
+        <v>86</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="0"/>
+        <v>EMpump : $("#EMpump").val(),</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" t="s">
+        <v>85</v>
+      </c>
+      <c r="H35" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" t="s">
+        <v>86</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="0"/>
+        <v>EMaircon : $("#EMaircon").val(),</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" t="s">
+        <v>85</v>
+      </c>
+      <c r="H36" t="s">
+        <v>66</v>
+      </c>
+      <c r="I36" t="s">
+        <v>86</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="0"/>
+        <v>EMtemperature : $("#EMtemperature").val(),</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" t="s">
+        <v>85</v>
+      </c>
+      <c r="H37" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" t="s">
+        <v>86</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="0"/>
+        <v>EEtime : $("#EEtime").val(),</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" t="s">
+        <v>68</v>
+      </c>
+      <c r="I38" t="s">
+        <v>86</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="0"/>
+        <v>EEstate : $("#EEstate").val(),</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>69</v>
+      </c>
+      <c r="G39" t="s">
+        <v>85</v>
+      </c>
+      <c r="H39" t="s">
+        <v>69</v>
+      </c>
+      <c r="I39" t="s">
+        <v>86</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="0"/>
+        <v>EEpump : $("#EEpump").val(),</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" t="s">
+        <v>85</v>
+      </c>
+      <c r="H40" t="s">
+        <v>70</v>
+      </c>
+      <c r="I40" t="s">
+        <v>86</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="0"/>
+        <v>EEaircon : $("#EEaircon").val(),</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" t="s">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s">
+        <v>86</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="0"/>
+        <v>EEtemperature : $("#EEtemperature").val(),</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>86</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="0"/>
+        <v>ifany : $("#ifany").val(),</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>72</v>
+      </c>
+      <c r="G43" t="s">
+        <v>85</v>
+      </c>
+      <c r="H43" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43" t="s">
+        <v>86</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="0"/>
+        <v>id : $("#id").val(),</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
